--- a/excel/aaa/config_配置.xlsx
+++ b/excel/aaa/config_配置.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BCF07D-8EE9-4AB9-BFE7-A3737F6F8550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFAC71-67F0-4E57-8979-203CD2249B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="3495" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="2595" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="配置_info" sheetId="1" r:id="rId1"/>
+    <sheet name="info_配置" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -513,7 +513,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
